--- a/ig/sd-add-new-MS/StructureDefinition-eclaire-contact-address.xlsx
+++ b/ig/sd-add-new-MS/StructureDefinition-eclaire-contact-address.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-19T13:39:25+00:00</t>
+    <t>2024-02-19T13:46:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
